--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE746C5-6F0D-4EA5-86CF-7DBAB23FA294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846BB41D-A8A0-433C-A57D-44EC86FE4E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
 Lõpetuseks küsime sinult veel mõned küsimused.</t>
   </si>
   <si>
-    <t>Katses ootavad sind kahe erineva raskusastmega kujundid. Seni proovitud kujundid oli kergemad, nüüd saad proovida ka kahe raskema kujundi loomist. Kujundi rasksuastmest annab märku kujundi värv.</t>
-  </si>
-  <si>
     <t>Võib-olla märkasid ekraanil täpsuse ja kestuse näidikuid. Täpsuse näidik annab teada, kui kaugel su hiir kujundist parasjagu on. Kestuse näidik loeb aega joonistamise algusest. 
 Sinu eesmärk on joonistada kujundeid võimalikult täpselt ja ka võimalikult kiiresti.
 Vajuta noolt, et ülesannet veelkord proovida.</t>
@@ -78,21 +75,9 @@
     <t>Kognitiivse efektiivsuse mõõtmise plokk:</t>
   </si>
   <si>
-    <t xml:space="preserve">Algav katse mõõdab sinu kognitiivset efektiivsust ehk sinu aju arvatavat võimet keskkonnast saabuvat infot eesmärgipäraselt kasutada.
-Kognitiivne efektiivsus on uus suund vaimsete võimete uurimisel. Seni on vaimseid võimeid seostatud eraldiseisvate oskustega nagu seoste märkamine või probleemide lahendamine.  Aju on aga üks tervik, mille erinevad osad töötavad kõik eesmärgiärase käitumise teenistuses. Kognitiivne efektiivsus viitabki psüühika kui terviku tõhususele. 
-Hetkel töötavad mitmed uurimisühmad kognitiivse efektiivsuse mõõdikute loomise kallal. Algav katse on üks paljulubav viis kognitiivse efektiivsuse mõõtmiseks, mida me kohandame Eesti konteksti. 
-Järgneval tutvustame sulle samm-sammult katse loogikat. Jätkamiseks vajuta noolt.
-</t>
-  </si>
-  <si>
     <t>Sinu ülesandeks on siin katses arvutihiirega järele joonistada erinevaid kujundeid. Joonistamise alustamiseks vajuta vasakut hiirenuppu ja hoia see all kuni joonistamise lõpuni.
 Püüa seda teha võimalikult täpselt ja ka võimalikult kiiresti. Kui mõni katse ilmselgelt ebaõnnestub, saad uue võimaluse.
 Vajuta noolt, et ülesannet proovida.</t>
-  </si>
-  <si>
-    <t>Katses kuvatakse aeg-ajalt tagasisidet sinu soorituse kohta.
-Täpsemalt näed, mitmest protsentist inimestest sinu sooritus tõenäoliselt parem oli. Võrdlusandmed pärinevad sama katse sooritajatel USA-s.
-Järgmise ülesande lõpus näed ka tagasisidet.</t>
   </si>
   <si>
     <t xml:space="preserve">Katse jaguneb plokkideks. Igas plokis on 4 sama raskusastmega kujundit. 
@@ -102,6 +87,21 @@
   </si>
   <si>
     <t>1:7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algav katse mõõdab sinu kognitiivset efektiivsust ehk sinu aju arvatavat võimet keskkonnast saabuvat infot eesmärgipäraselt kasutada.
+Kognitiivne efektiivsus on uus suund vaimsete võimete uurimisel. Seni on vaimseid võimeid seostatud eraldiseisvate oskustega nagu seoste märkamine või probleemide lahendamine.  Aju on aga üks tervik, mille erinevad osad töötavad kõik eesmärgipärase käitumise teenistuses. Kognitiivne efektiivsus viitabki psüühika kui terviku tõhususele. 
+Hetkel töötavad mitmed uurimisühmad kognitiivse efektiivsuse mõõdikute loomise kallal. Algav katse on üks paljulubav viis kognitiivse efektiivsuse mõõtmiseks, mida me kohandame Eesti konteksti. 
+Järgnevalt tutvustame sulle samm-sammult katse loogikat. Jätkamiseks vajuta noolt.
+</t>
+  </si>
+  <si>
+    <t>Katses ootavad sind kahe erineva raskusastmega kujundid. Seni proovitud kujundid olid kergemad, nüüd saad proovida ka kahe raskema kujundi loomist. Kujundi rasksuastmest annab märku kujundi värv.</t>
+  </si>
+  <si>
+    <t>Katses kuvatakse aeg-ajalt tagasisidet sinu soorituse kohta.
+Täpsemalt näed, mitmest protsendist inimestest sinu sooritus tõenäoliselt parem oli. Võrdlusandmed pärinevad sama katse sooritajatelt USA-s.
+Järgmise ülesande lõpus näed ka tagasisidet.</t>
   </si>
 </sst>
 </file>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I16">
         <v>0</v>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846BB41D-A8A0-433C-A57D-44EC86FE4E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0C7430-1A16-4213-B3C1-8751D04092D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>intro_text_content</t>
   </si>
@@ -55,53 +55,54 @@
   </si>
   <si>
     <t>outlier</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>Aitäh! Kognitiivse efektiivsuse mõõtmised on lõppenud. 
 Lõpetuseks küsime sinult veel mõned küsimused.</t>
   </si>
   <si>
-    <t>Võib-olla märkasid ekraanil täpsuse ja kestuse näidikuid. Täpsuse näidik annab teada, kui kaugel su hiir kujundist parasjagu on. Kestuse näidik loeb aega joonistamise algusest. 
-Sinu eesmärk on joonistada kujundeid võimalikult täpselt ja ka võimalikult kiiresti.
-Vajuta noolt, et ülesannet veelkord proovida.</t>
-  </si>
-  <si>
-    <t>videoRec</t>
+    <t>1:4</t>
   </si>
   <si>
     <t>Kognitiivse efektiivsuse mõõtmise plokk:</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>Katses kuvatakse aeg-ajalt tagasisidet sinu soorituse kohta.
+Tagasiside võtab arvesse nii täpsust kui kiirust.
+Täpsemalt näed, mitmest protsentist inimestest sinu sooritus tõenäoliselt parem oli. Võrdlusandmed pärinevad sama katse sooritajatel USA-s.
+Järgmise ülesande lõpus näed ka tagasisidet.
+Kui oled valmis edasi liikuma, siis teavita palun katse läbiviijat.</t>
   </si>
   <si>
     <t>Sinu ülesandeks on siin katses arvutihiirega järele joonistada erinevaid kujundeid. Joonistamise alustamiseks vajuta vasakut hiirenuppu ja hoia see all kuni joonistamise lõpuni.
 Püüa seda teha võimalikult täpselt ja ka võimalikult kiiresti. Kui mõni katse ilmselgelt ebaõnnestub, saad uue võimaluse.
-Vajuta noolt, et ülesannet proovida.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katse jaguneb plokkideks. Igas plokis on 4 sama raskusastmega kujundit. 
+Kui oled valmis, siis teavita palun katse läbiviijat, et esimeste treeningseeriate juurde liikuda.</t>
+  </si>
+  <si>
+    <t>Võib-olla märkasid ekraanil täpsuse ja kestuse näidikuid. Täpsuse näidik annab teada, kui kaugel su hiir kujundist parasjagu on. Kestuse näidik loeb aega joonistamise algusest. Sinu eesmärk on joonistada kujundeid võimalikult täpselt ja ka võimalikult kiiresti. 
+Joonistamisega alustamiseks on sul aega kuni kujund ekraanilt ära kaob.
+Kui oled valmis, siis teavita palun katse läbiviijat.</t>
+  </si>
+  <si>
+    <t>Katse jaguneb plokkideks. Igas plokis on 4 sama raskusastmega kujundit. 
 Iga ploki lõpus näed tagasisidet kõigi nelja soorituse kohta. 
 Pärast tagasisidet palutakse sul hinnata, millise tunde plokis saadud tulemus tekitas. 
-Enne mõõtmisega alustamist saad läbi teha ühe harjutusploki. </t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algav katse mõõdab sinu kognitiivset efektiivsust ehk sinu aju arvatavat võimet keskkonnast saabuvat infot eesmärgipäraselt kasutada.
-Kognitiivne efektiivsus on uus suund vaimsete võimete uurimisel. Seni on vaimseid võimeid seostatud eraldiseisvate oskustega nagu seoste märkamine või probleemide lahendamine.  Aju on aga üks tervik, mille erinevad osad töötavad kõik eesmärgipärase käitumise teenistuses. Kognitiivne efektiivsus viitabki psüühika kui terviku tõhususele. 
+Enne mõõtmisega alustamist saad läbi teha ühe harjutusploki. 
+Kui oled valmis edasi liikuma, siis teavita palun katse läbiviijat. Pärast neid nelja sooritust saad edasiliikumiseks vajutada juba aga paremal all olevat noolt.</t>
+  </si>
+  <si>
+    <t>Algav katse mõõdab sinu kognitiivset efektiivsust ehk sinu aju arvatavat võimet keskkonnast saabuvat infot eesmärgipäraselt kasutada.
+Kognitiivne efektiivsus on uus suund vaimsete võimete uurimisel. Seni on vaimseid võimeid seostatud eraldiseisvate oskustega nagu seoste märkamine või probleemide lahendamine. Aju on aga üks tervik, mille erinevad osad töötavad kõik eesmärgiärase käitumise teenistuses. Kognitiivne efektiivsus viitabki psüühika kui terviku tõhususele. 
 Hetkel töötavad mitmed uurimisühmad kognitiivse efektiivsuse mõõdikute loomise kallal. Algav katse on üks paljulubav viis kognitiivse efektiivsuse mõõtmiseks, mida me kohandame Eesti konteksti. 
-Järgnevalt tutvustame sulle samm-sammult katse loogikat. Jätkamiseks vajuta noolt.
-</t>
-  </si>
-  <si>
-    <t>Katses ootavad sind kahe erineva raskusastmega kujundid. Seni proovitud kujundid olid kergemad, nüüd saad proovida ka kahe raskema kujundi loomist. Kujundi rasksuastmest annab märku kujundi värv.</t>
-  </si>
-  <si>
-    <t>Katses kuvatakse aeg-ajalt tagasisidet sinu soorituse kohta.
-Täpsemalt näed, mitmest protsendist inimestest sinu sooritus tõenäoliselt parem oli. Võrdlusandmed pärinevad sama katse sooritajatelt USA-s.
-Järgmise ülesande lõpus näed ka tagasisidet.</t>
+Järgnevalt tutvustame sulle samm-sammult katse loogikat. 
+Katses saad edasi liikuda paremal all paiknevale noolele vajutades. Treeningu jooksul aga vahetab lehti katse läbiviija. Kui oled valmis, siis teavita palun katse läbiviijat.</t>
+  </si>
+  <si>
+    <t>Katses ootavad sind kahe erineva raskusastmega kujundid. Seni proovitud kujundid olid kergemad, nüüd saad proovida ka kahe raskema kujundi loomist. Kujundi rasksuastmest annab märku kujundi värv.
+Kui oled valmis, siis teavita palun katse läbiviijat.</t>
   </si>
 </sst>
 </file>
@@ -437,17 +438,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="113.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.140625" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
@@ -484,7 +485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -510,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -527,7 +528,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -539,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -553,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -568,10 +569,10 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -597,10 +598,10 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -611,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -620,16 +621,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -640,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -663,13 +664,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -684,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -698,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -713,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -721,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -742,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -753,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -771,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -779,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -800,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -811,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -829,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -840,10 +841,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -858,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -866,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -887,35 +888,151 @@
         <v>5</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16">
+      <c r="I20">
         <v>0</v>
       </c>
     </row>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0C7430-1A16-4213-B3C1-8751D04092D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D05FA8-C578-4664-BE21-163D369A6C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,15 +94,15 @@
 Kui oled valmis edasi liikuma, siis teavita palun katse läbiviijat. Pärast neid nelja sooritust saad edasiliikumiseks vajutada juba aga paremal all olevat noolt.</t>
   </si>
   <si>
+    <t>Katses ootavad sind kahe erineva raskusastmega kujundid. Seni proovitud kujundid olid kergemad, nüüd saad proovida ka kahe raskema kujundi loomist. Kujundi rasksuastmest annab märku kujundi värv.
+Kui oled valmis, siis teavita palun katse läbiviijat.</t>
+  </si>
+  <si>
     <t>Algav katse mõõdab sinu kognitiivset efektiivsust ehk sinu aju arvatavat võimet keskkonnast saabuvat infot eesmärgipäraselt kasutada.
-Kognitiivne efektiivsus on uus suund vaimsete võimete uurimisel. Seni on vaimseid võimeid seostatud eraldiseisvate oskustega nagu seoste märkamine või probleemide lahendamine. Aju on aga üks tervik, mille erinevad osad töötavad kõik eesmärgiärase käitumise teenistuses. Kognitiivne efektiivsus viitabki psüühika kui terviku tõhususele. 
+Kognitiivne efektiivsus on uus suund vaimsete võimete uurimisel. Seni on vaimseid võimeid seostatud eraldiseisvate oskustega nagu seoste märkamine või probleemide lahendamine. Aju on aga üks tervik, mille erinevad osad töötavad kõik eesmärgpärase käitumise teenistuses. Kognitiivne efektiivsus viitabki psüühika kui terviku tõhususele. 
 Hetkel töötavad mitmed uurimisühmad kognitiivse efektiivsuse mõõdikute loomise kallal. Algav katse on üks paljulubav viis kognitiivse efektiivsuse mõõtmiseks, mida me kohandame Eesti konteksti. 
 Järgnevalt tutvustame sulle samm-sammult katse loogikat. 
 Katses saad edasi liikuda paremal all paiknevale noolele vajutades. Treeningu jooksul aga vahetab lehti katse läbiviija. Kui oled valmis, siis teavita palun katse läbiviijat.</t>
-  </si>
-  <si>
-    <t>Katses ootavad sind kahe erineva raskusastmega kujundid. Seni proovitud kujundid olid kergemad, nüüd saad proovida ka kahe raskema kujundi loomist. Kujundi rasksuastmest annab märku kujundi värv.
-Kui oled valmis, siis teavita palun katse läbiviijat.</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>2</v>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D05FA8-C578-4664-BE21-163D369A6C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{E8D05FA8-C578-4664-BE21-163D369A6C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB0E3A3D-0EFF-4442-AA23-CBC5E135E3A6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>intro_text_content</t>
   </si>
@@ -103,6 +103,9 @@
 Hetkel töötavad mitmed uurimisühmad kognitiivse efektiivsuse mõõdikute loomise kallal. Algav katse on üks paljulubav viis kognitiivse efektiivsuse mõõtmiseks, mida me kohandame Eesti konteksti. 
 Järgnevalt tutvustame sulle samm-sammult katse loogikat. 
 Katses saad edasi liikuda paremal all paiknevale noolele vajutades. Treeningu jooksul aga vahetab lehti katse läbiviija. Kui oled valmis, siis teavita palun katse läbiviijat.</t>
+  </si>
+  <si>
+    <t>Pärast tagasiside nägemist küsitakse sult üks küsimus.</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -641,13 +644,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -659,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -670,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -685,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -725,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -783,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -838,10 +841,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -899,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -957,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -1007,32 +1010,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>0</v>
       </c>
     </row>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{E8D05FA8-C578-4664-BE21-163D369A6C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB0E3A3D-0EFF-4442-AA23-CBC5E135E3A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D9AE7F-03E6-4D6F-8F3E-DA0B4FABCE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>intro_text_content</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>0:1</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>dif</t>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>Pärast tagasiside nägemist küsitakse sult üks küsimus.</t>
+  </si>
+  <si>
+    <t>fb</t>
+  </si>
+  <si>
+    <t>0:0</t>
   </si>
 </sst>
 </file>
@@ -443,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,8 +457,8 @@
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="113.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,11 +467,11 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -476,16 +479,16 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="225" customHeight="1" x14ac:dyDescent="0.25">
@@ -499,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -528,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -557,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -586,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -615,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -627,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -644,13 +647,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -673,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -702,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -731,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -760,7 +763,7 @@
         <v>-1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -789,7 +792,7 @@
         <v>-1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -818,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -847,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -905,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -934,7 +937,7 @@
         <v>-1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -963,7 +966,7 @@
         <v>-1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -992,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1021,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -1050,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="I21">
         <v>0</v>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D9AE7F-03E6-4D6F-8F3E-DA0B4FABCE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5DD59A-84DD-4F28-8F4C-3D90FB05BB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
 Lõpetuseks küsime sinult veel mõned küsimused.</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>Kognitiivse efektiivsuse mõõtmise plokk:</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>0:0</t>
+  </si>
+  <si>
+    <t>1:6</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,13 +482,13 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="225" customHeight="1" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -763,7 +763,7 @@
         <v>-1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -792,7 +792,7 @@
         <v>-1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -937,7 +937,7 @@
         <v>-1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -966,7 +966,7 @@
         <v>-1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <v>0</v>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5DD59A-84DD-4F28-8F4C-3D90FB05BB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63AC16F-3CD9-4DE7-8703-2D4A24D53B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>1:6</t>
+    <t>1:7</t>
   </si>
 </sst>
 </file>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63AC16F-3CD9-4DE7-8703-2D4A24D53B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{F63AC16F-3CD9-4DE7-8703-2D4A24D53B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31BD750A-9942-4999-AD1C-64FB36886D97}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,51 +64,46 @@
     <t>training</t>
   </si>
   <si>
-    <t>Katses kuvatakse aeg-ajalt tagasisidet sinu soorituse kohta.
-Tagasiside võtab arvesse nii täpsust kui kiirust.
-Täpsemalt näed, mitmest protsentist inimestest sinu sooritus tõenäoliselt parem oli. Võrdlusandmed pärinevad sama katse sooritajatel USA-s.
-Järgmise ülesande lõpus näed ka tagasisidet.
-Kui oled valmis edasi liikuma, siis teavita palun katse läbiviijat.</t>
+    <t>fb</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1:7</t>
   </si>
   <si>
     <t>Sinu ülesandeks on siin katses arvutihiirega järele joonistada erinevaid kujundeid. Joonistamise alustamiseks vajuta vasakut hiirenuppu ja hoia see all kuni joonistamise lõpuni.
-Püüa seda teha võimalikult täpselt ja ka võimalikult kiiresti. Kui mõni katse ilmselgelt ebaõnnestub, saad uue võimaluse.
-Kui oled valmis, siis teavita palun katse läbiviijat, et esimeste treeningseeriate juurde liikuda.</t>
-  </si>
-  <si>
-    <t>Võib-olla märkasid ekraanil täpsuse ja kestuse näidikuid. Täpsuse näidik annab teada, kui kaugel su hiir kujundist parasjagu on. Kestuse näidik loeb aega joonistamise algusest. Sinu eesmärk on joonistada kujundeid võimalikult täpselt ja ka võimalikult kiiresti. 
-Joonistamisega alustamiseks on sul aega kuni kujund ekraanilt ära kaob.
-Kui oled valmis, siis teavita palun katse läbiviijat.</t>
+Püüa kujundeid joonistada võimalikult täpselt ja ka võimalikult kiiresti. Kui mõni katse ilmselgelt ebaõnnestub, saad uue võimaluse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algav katse mõõdab sinu kognitiivset efektiivsust ehk su aju arvatavat tõhusust tegevuse juhtimisel.
+Kognitiivne efektiivsus on uus suund vaimsete võimete uurimises. Seni on vaimseid võimeid seostatud eraldiseisvate oskustega nagu seoste märkamine või probleemide lahendamine. Psüühika on aga üks tervik, mille erinevad osad töötavad eesmärgpärase käitumise teenistuses. Kognitiivne efektiivsus viitabki psüühika kui terviku tõhususele. 
+Algav katse on arendusjärgus olev kognitiivse efektiivsuse mõõdik, mida me soovime kohandada Eesti konteksti. 
+Järgnevalt tutvustame sulle samm-sammult katse loogikat. </t>
+  </si>
+  <si>
+    <t>Võib-olla märkasid ekraanil täpsuse ja kestuse näidikuid. Täpsuse näidik annab teada, kui kaugel su hiir kujundist parasjagu on. Kestuse näidik loeb aega joonistamise algusest. 
+Sinu eesmärk on joonistada kujundeid võimalikult täpselt ja ka võimalikult kiiresti. 
+Joonistamisega alustamiseks on sul aega kuni kujund ekraanilt ära kaob.</t>
+  </si>
+  <si>
+    <t>Katses ootavad sind kahe erineva raskusastmega kujundid. Seni proovitud kujundid olid kergemad, nüüd saad proovida ka kahe raskema kujundi loomist. Kujundi rasksuastmest annab märku kujundi värv</t>
+  </si>
+  <si>
+    <t>Katses kuvatakse aeg-ajalt tagasisidet, mis  võtab arvesse nii täpsust kui kiirust.
+Täpsemalt näed, mitmest protsentist inimestest sinu sooritus tõenäoliselt parem oli. Tagasiside aluseks olevad võrdlusandmed pärinevad sama katse sooritajatel USA-s.
+Järgmise ülesande lõpus näed ka tagasisidet.</t>
+  </si>
+  <si>
+    <t>Pärast tagasiside nägemist küsitakse sinult ka üks küsimus.</t>
   </si>
   <si>
     <t>Katse jaguneb plokkideks. Igas plokis on 4 sama raskusastmega kujundit. 
 Iga ploki lõpus näed tagasisidet kõigi nelja soorituse kohta. 
 Pärast tagasisidet palutakse sul hinnata, millise tunde plokis saadud tulemus tekitas. 
 Enne mõõtmisega alustamist saad läbi teha ühe harjutusploki. 
-Kui oled valmis edasi liikuma, siis teavita palun katse läbiviijat. Pärast neid nelja sooritust saad edasiliikumiseks vajutada juba aga paremal all olevat noolt.</t>
-  </si>
-  <si>
-    <t>Katses ootavad sind kahe erineva raskusastmega kujundid. Seni proovitud kujundid olid kergemad, nüüd saad proovida ka kahe raskema kujundi loomist. Kujundi rasksuastmest annab märku kujundi värv.
-Kui oled valmis, siis teavita palun katse läbiviijat.</t>
-  </si>
-  <si>
-    <t>Algav katse mõõdab sinu kognitiivset efektiivsust ehk sinu aju arvatavat võimet keskkonnast saabuvat infot eesmärgipäraselt kasutada.
-Kognitiivne efektiivsus on uus suund vaimsete võimete uurimisel. Seni on vaimseid võimeid seostatud eraldiseisvate oskustega nagu seoste märkamine või probleemide lahendamine. Aju on aga üks tervik, mille erinevad osad töötavad kõik eesmärgpärase käitumise teenistuses. Kognitiivne efektiivsus viitabki psüühika kui terviku tõhususele. 
-Hetkel töötavad mitmed uurimisühmad kognitiivse efektiivsuse mõõdikute loomise kallal. Algav katse on üks paljulubav viis kognitiivse efektiivsuse mõõtmiseks, mida me kohandame Eesti konteksti. 
-Järgnevalt tutvustame sulle samm-sammult katse loogikat. 
-Katses saad edasi liikuda paremal all paiknevale noolele vajutades. Treeningu jooksul aga vahetab lehti katse läbiviija. Kui oled valmis, siis teavita palun katse läbiviijat.</t>
-  </si>
-  <si>
-    <t>Pärast tagasiside nägemist küsitakse sult üks küsimus.</t>
-  </si>
-  <si>
-    <t>fb</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1:7</t>
+Pärast harjutusplokki vajuta katses edasi liikumiseks noolt ekraani paremas alanurgas.</t>
   </si>
 </sst>
 </file>
@@ -446,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -491,7 +486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -502,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -520,7 +515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -531,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -549,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -560,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -578,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -589,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -607,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -618,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -630,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -647,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -665,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -676,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -1065,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I21">
         <v>0</v>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{F63AC16F-3CD9-4DE7-8703-2D4A24D53B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31BD750A-9942-4999-AD1C-64FB36886D97}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82F7228-148F-499B-9DE0-E0521BDFDE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,11 +91,6 @@
     <t>Katses ootavad sind kahe erineva raskusastmega kujundid. Seni proovitud kujundid olid kergemad, nüüd saad proovida ka kahe raskema kujundi loomist. Kujundi rasksuastmest annab märku kujundi värv</t>
   </si>
   <si>
-    <t>Katses kuvatakse aeg-ajalt tagasisidet, mis  võtab arvesse nii täpsust kui kiirust.
-Täpsemalt näed, mitmest protsentist inimestest sinu sooritus tõenäoliselt parem oli. Tagasiside aluseks olevad võrdlusandmed pärinevad sama katse sooritajatel USA-s.
-Järgmise ülesande lõpus näed ka tagasisidet.</t>
-  </si>
-  <si>
     <t>Pärast tagasiside nägemist küsitakse sinult ka üks küsimus.</t>
   </si>
   <si>
@@ -104,6 +99,11 @@
 Pärast tagasisidet palutakse sul hinnata, millise tunde plokis saadud tulemus tekitas. 
 Enne mõõtmisega alustamist saad läbi teha ühe harjutusploki. 
 Pärast harjutusplokki vajuta katses edasi liikumiseks noolt ekraani paremas alanurgas.</t>
+  </si>
+  <si>
+    <t>Katses kuvatakse aeg-ajalt tagasisidet, mis  võtab arvesse nii täpsust kui kiirust.
+Täpsemalt näed, mitmest protsendist inimestest sinu sooritus tõenäoliselt parem oli. Tagasiside aluseks olevad võrdlusandmed pärinevad sama katse sooritajatel USA-s.
+Järgmise ülesande lõpus näed ka tagasisidet.</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>4</v>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82F7228-148F-499B-9DE0-E0521BDFDE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AEE3F8-41FE-4E3A-BC2C-759E5D7444FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,12 +77,6 @@
 Püüa kujundeid joonistada võimalikult täpselt ja ka võimalikult kiiresti. Kui mõni katse ilmselgelt ebaõnnestub, saad uue võimaluse.</t>
   </si>
   <si>
-    <t xml:space="preserve">Algav katse mõõdab sinu kognitiivset efektiivsust ehk su aju arvatavat tõhusust tegevuse juhtimisel.
-Kognitiivne efektiivsus on uus suund vaimsete võimete uurimises. Seni on vaimseid võimeid seostatud eraldiseisvate oskustega nagu seoste märkamine või probleemide lahendamine. Psüühika on aga üks tervik, mille erinevad osad töötavad eesmärgpärase käitumise teenistuses. Kognitiivne efektiivsus viitabki psüühika kui terviku tõhususele. 
-Algav katse on arendusjärgus olev kognitiivse efektiivsuse mõõdik, mida me soovime kohandada Eesti konteksti. 
-Järgnevalt tutvustame sulle samm-sammult katse loogikat. </t>
-  </si>
-  <si>
     <t>Võib-olla märkasid ekraanil täpsuse ja kestuse näidikuid. Täpsuse näidik annab teada, kui kaugel su hiir kujundist parasjagu on. Kestuse näidik loeb aega joonistamise algusest. 
 Sinu eesmärk on joonistada kujundeid võimalikult täpselt ja ka võimalikult kiiresti. 
 Joonistamisega alustamiseks on sul aega kuni kujund ekraanilt ära kaob.</t>
@@ -104,6 +98,12 @@
     <t>Katses kuvatakse aeg-ajalt tagasisidet, mis  võtab arvesse nii täpsust kui kiirust.
 Täpsemalt näed, mitmest protsendist inimestest sinu sooritus tõenäoliselt parem oli. Tagasiside aluseks olevad võrdlusandmed pärinevad sama katse sooritajatel USA-s.
 Järgmise ülesande lõpus näed ka tagasisidet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algav katse mõõdab sinu kognitiivset efektiivsust ehk su aju arvatavat tõhusust tegevuse juhtimisel.
+Kognitiivne efektiivsus on uus suund vaimsete võimete uurimises. Seni on vaimseid võimeid seostatud eraldiseisvate oskustega nagu seoste märkamine või probleemide lahendamine. Psüühika on aga üks tervik, mille erinevad osad töötavad eesmärgipärase käitumise teenistuses. Kognitiivne efektiivsus viitabki psüühika kui terviku tõhususele. 
+Algav katse on arendusjärgus olev kognitiivse efektiivsuse mõõdik, mida me soovime kohandada Eesti konteksti. 
+Järgnevalt tutvustame sulle samm-sammult katse loogikat. </t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>4</v>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AEE3F8-41FE-4E3A-BC2C-759E5D7444FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072330AC-58B7-441E-BBD5-051705ED90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
 Joonistamisega alustamiseks on sul aega kuni kujund ekraanilt ära kaob.</t>
   </si>
   <si>
-    <t>Katses ootavad sind kahe erineva raskusastmega kujundid. Seni proovitud kujundid olid kergemad, nüüd saad proovida ka kahe raskema kujundi loomist. Kujundi rasksuastmest annab märku kujundi värv</t>
-  </si>
-  <si>
     <t>Pärast tagasiside nägemist küsitakse sinult ka üks küsimus.</t>
   </si>
   <si>
@@ -95,15 +92,18 @@
 Pärast harjutusplokki vajuta katses edasi liikumiseks noolt ekraani paremas alanurgas.</t>
   </si>
   <si>
-    <t>Katses kuvatakse aeg-ajalt tagasisidet, mis  võtab arvesse nii täpsust kui kiirust.
-Täpsemalt näed, mitmest protsendist inimestest sinu sooritus tõenäoliselt parem oli. Tagasiside aluseks olevad võrdlusandmed pärinevad sama katse sooritajatel USA-s.
-Järgmise ülesande lõpus näed ka tagasisidet.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Algav katse mõõdab sinu kognitiivset efektiivsust ehk su aju arvatavat tõhusust tegevuse juhtimisel.
 Kognitiivne efektiivsus on uus suund vaimsete võimete uurimises. Seni on vaimseid võimeid seostatud eraldiseisvate oskustega nagu seoste märkamine või probleemide lahendamine. Psüühika on aga üks tervik, mille erinevad osad töötavad eesmärgipärase käitumise teenistuses. Kognitiivne efektiivsus viitabki psüühika kui terviku tõhususele. 
 Algav katse on arendusjärgus olev kognitiivse efektiivsuse mõõdik, mida me soovime kohandada Eesti konteksti. 
 Järgnevalt tutvustame sulle samm-sammult katse loogikat. </t>
+  </si>
+  <si>
+    <t>Katses ootavad sind kahe erineva raskusastmega kujundid. Seni proovitud kujundid olid kergemad, nüüd saad proovida ka kahe raskema kujundi loomist. Kujundi raskusastmest annab märku kujundi värv</t>
+  </si>
+  <si>
+    <t>Katses kuvatakse aeg-ajalt tagasisidet,mis  võtab arvesse nii täpsust kui kiirust.
+Täpsemalt näed, mitmest protsendist inimestest sinu sooritus tõenäoliselt parem oli. Tagasiside aluseks olevad võrdlusandmed pärinevad sama katse sooritajatel USA-s.
+Järgmise ülesande lõpus näed ka tagasisidet.</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>4</v>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072330AC-58B7-441E-BBD5-051705ED90B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A814D1-769E-4B22-A399-5417B2DB7C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <t>Katses ootavad sind kahe erineva raskusastmega kujundid. Seni proovitud kujundid olid kergemad, nüüd saad proovida ka kahe raskema kujundi loomist. Kujundi raskusastmest annab märku kujundi värv</t>
   </si>
   <si>
-    <t>Katses kuvatakse aeg-ajalt tagasisidet,mis  võtab arvesse nii täpsust kui kiirust.
+    <t>Katses kuvatakse aeg-ajalt tagasisidet, mis võtab arvesse nii täpsust kui kiirust.
 Täpsemalt näed, mitmest protsendist inimestest sinu sooritus tõenäoliselt parem oli. Tagasiside aluseks olevad võrdlusandmed pärinevad sama katse sooritajatel USA-s.
 Järgmise ülesande lõpus näed ka tagasisidet.</t>
   </si>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A814D1-769E-4B22-A399-5417B2DB7C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A897CC8B-8E4C-4DBF-850C-140F2CF8F3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
   <si>
     <t>Katses kuvatakse aeg-ajalt tagasisidet, mis võtab arvesse nii täpsust kui kiirust.
 Täpsemalt näed, mitmest protsendist inimestest sinu sooritus tõenäoliselt parem oli. Tagasiside aluseks olevad võrdlusandmed pärinevad sama katse sooritajatel USA-s.
-Järgmise ülesande lõpus näed ka tagasisidet.</t>
+Järgmise ülesande lõpus näed ka tagasisidet. Katses on tagasiside kestus fikseeritud, kuid prooviseeriatel aitab nendest edasi liikuda katse läbiviija.</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
